--- a/orddata.xlsx
+++ b/orddata.xlsx
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>2.72000002861023</v>
+        <v>2.720000028610229</v>
       </c>
     </row>
     <row r="45">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>2.47000002861023</v>
+        <v>2.470000028610229</v>
       </c>
     </row>
     <row r="47">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2.97000002861023</v>
+        <v>2.970000028610229</v>
       </c>
     </row>
     <row r="57">
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>3.910000085830689</v>
+        <v>3.910000085830688</v>
       </c>
     </row>
     <row r="58">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>3.22000002861023</v>
+        <v>3.220000028610229</v>
       </c>
     </row>
     <row r="65">
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2.910000085830689</v>
+        <v>2.910000085830688</v>
       </c>
     </row>
     <row r="70">
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2.97000002861023</v>
+        <v>2.970000028610229</v>
       </c>
     </row>
     <row r="75">
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>3.72000002861023</v>
+        <v>3.720000028610229</v>
       </c>
     </row>
     <row r="82">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2.72000002861023</v>
+        <v>2.720000028610229</v>
       </c>
     </row>
     <row r="84">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>3.160000085830689</v>
+        <v>3.160000085830688</v>
       </c>
     </row>
     <row r="100">
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>2.47000002861023</v>
+        <v>2.470000028610229</v>
       </c>
     </row>
     <row r="101">
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>3.160000085830689</v>
+        <v>3.160000085830688</v>
       </c>
     </row>
     <row r="104">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>3.22000002861023</v>
+        <v>3.220000028610229</v>
       </c>
     </row>
     <row r="160">
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>3.160000085830689</v>
+        <v>3.160000085830688</v>
       </c>
     </row>
     <row r="161">
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>3.160000085830689</v>
+        <v>3.160000085830688</v>
       </c>
     </row>
     <row r="165">
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>2.910000085830689</v>
+        <v>2.910000085830688</v>
       </c>
     </row>
     <row r="167">
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>2.410000085830689</v>
+        <v>2.410000085830688</v>
       </c>
     </row>
     <row r="174">
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>2.22000002861023</v>
+        <v>2.220000028610229</v>
       </c>
     </row>
     <row r="179">
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>2.410000085830689</v>
+        <v>2.410000085830688</v>
       </c>
     </row>
     <row r="187">
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>3.22000002861023</v>
+        <v>3.220000028610229</v>
       </c>
     </row>
     <row r="189">
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>3.22000002861023</v>
+        <v>3.220000028610229</v>
       </c>
     </row>
     <row r="196">
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>2.97000002861023</v>
+        <v>2.970000028610229</v>
       </c>
     </row>
     <row r="213">
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>2.47000002861023</v>
+        <v>2.470000028610229</v>
       </c>
     </row>
     <row r="215">
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>3.22000002861023</v>
+        <v>3.220000028610229</v>
       </c>
     </row>
     <row r="222">
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>3.22000002861023</v>
+        <v>3.220000028610229</v>
       </c>
     </row>
     <row r="251">
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>2.72000002861023</v>
+        <v>2.720000028610229</v>
       </c>
     </row>
     <row r="265">
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>3.160000085830689</v>
+        <v>3.160000085830688</v>
       </c>
     </row>
     <row r="280">
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>2.72000002861023</v>
+        <v>2.720000028610229</v>
       </c>
     </row>
     <row r="300">
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>3.410000085830689</v>
+        <v>3.410000085830688</v>
       </c>
     </row>
     <row r="315">
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>2.47000002861023</v>
+        <v>2.470000028610229</v>
       </c>
     </row>
     <row r="332">
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="D332">
-        <v>3.72000002861023</v>
+        <v>3.720000028610229</v>
       </c>
     </row>
     <row r="333">
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="D348">
-        <v>2.97000002861023</v>
+        <v>2.970000028610229</v>
       </c>
     </row>
     <row r="349">
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="D354">
-        <v>2.72000002861023</v>
+        <v>2.720000028610229</v>
       </c>
     </row>
     <row r="355">
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="D359">
-        <v>2.910000085830689</v>
+        <v>2.910000085830688</v>
       </c>
     </row>
     <row r="360">
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="D386">
-        <v>2.22000002861023</v>
+        <v>2.220000028610229</v>
       </c>
     </row>
     <row r="387">
